--- a/SCORE.xlsx
+++ b/SCORE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,7 +38,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VID</t>
+    <t>VIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PETER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -431,6 +435,14 @@
       </c>
       <c r="B5">
         <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
